--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP\WebSecurity\PythonXSS\Scrapingdata\COLAB\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\My_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="621">
   <si>
     <t>websites</t>
   </si>
@@ -1170,9 +1170,6 @@
   </si>
   <si>
     <t>https://www.thestampmaker.com</t>
-  </si>
-  <si>
-    <t>https://www.warehouse</t>
   </si>
   <si>
     <t>https://www.worldlabel.com</t>
@@ -2218,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A652"/>
+  <dimension ref="A1:A651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D649" sqref="D649"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400:A450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,7 +4303,7 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
@@ -4321,7 +4318,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -4341,7 +4338,7 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
@@ -4491,7 +4488,7 @@
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
@@ -4636,7 +4633,7 @@
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
@@ -4691,7 +4688,7 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
@@ -4716,7 +4713,7 @@
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
@@ -4736,7 +4733,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
@@ -4801,7 +4798,7 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
@@ -4861,7 +4858,7 @@
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
@@ -5081,7 +5078,7 @@
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
@@ -5156,7 +5153,7 @@
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
@@ -5386,7 +5383,7 @@
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
@@ -5482,11 +5479,6 @@
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>
